--- a/frontend/outputs/LP5042244A_invoice.xlsx
+++ b/frontend/outputs/LP5042244A_invoice.xlsx
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="24" t="n">
-        <v>89.90780256940546</v>
+        <v>90.08333160537934</v>
       </c>
       <c r="E12" s="24" t="n"/>
       <c r="F12" s="24" t="n"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="24" t="n">
-        <v>150.0532261540435</v>
+        <v>149.996926468856</v>
       </c>
       <c r="E13" s="24" t="n"/>
       <c r="F13" s="24" t="n"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="24" t="n">
-        <v>140.0451003969561</v>
+        <v>139.9855076311586</v>
       </c>
       <c r="E14" s="24" t="n"/>
       <c r="F14" s="24" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="24" t="n">
-        <v>260.0053234276627</v>
+        <v>260.0722227953917</v>
       </c>
       <c r="E15" s="24" t="n"/>
       <c r="F15" s="24" t="n"/>

--- a/frontend/outputs/LP5042244A_invoice.xlsx
+++ b/frontend/outputs/LP5042244A_invoice.xlsx
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="24" t="n">
-        <v>90.08333160537934</v>
+        <v>90.0800986929856</v>
       </c>
       <c r="E12" s="24" t="n"/>
       <c r="F12" s="24" t="n"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="24" t="n">
-        <v>149.996926468856</v>
+        <v>149.9466095049098</v>
       </c>
       <c r="E13" s="24" t="n"/>
       <c r="F13" s="24" t="n"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="24" t="n">
-        <v>139.9855076311586</v>
+        <v>139.9557982397171</v>
       </c>
       <c r="E14" s="24" t="n"/>
       <c r="F14" s="24" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="24" t="n">
-        <v>260.0722227953917</v>
+        <v>259.9020606203105</v>
       </c>
       <c r="E15" s="24" t="n"/>
       <c r="F15" s="24" t="n"/>

--- a/frontend/outputs/LP5042244A_invoice.xlsx
+++ b/frontend/outputs/LP5042244A_invoice.xlsx
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="24" t="n">
-        <v>90.0800986929856</v>
+        <v>90.06640422832818</v>
       </c>
       <c r="E12" s="24" t="n"/>
       <c r="F12" s="24" t="n"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="24" t="n">
-        <v>149.9466095049098</v>
+        <v>150.0220681050997</v>
       </c>
       <c r="E13" s="24" t="n"/>
       <c r="F13" s="24" t="n"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="24" t="n">
-        <v>139.9557982397171</v>
+        <v>140.0903532887464</v>
       </c>
       <c r="E14" s="24" t="n"/>
       <c r="F14" s="24" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="24" t="n">
-        <v>259.9020606203105</v>
+        <v>259.999546973862</v>
       </c>
       <c r="E15" s="24" t="n"/>
       <c r="F15" s="24" t="n"/>
